--- a/pred_ohlcv/54_21/2019-10-29 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 PIVX ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4985.113979510004</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>191729.92172049</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>191729.92172049</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>156379.81442049</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>183452.37252049</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>186412.62252049</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>142580.76771742</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>107018.18466806</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>107018.18466806</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>76323.37426806003</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>78542.70276806001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-61075.31506252997</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-70472.70592485997</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-68662.70592485997</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 PIVX ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4985.113979510004</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-10072.79257951001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7953.810120489994</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>13744.62352048999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11216.87992048999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>11262.97052048999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>191729.92172049</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>191729.92172049</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>156379.81442049</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>155753.67692049</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>118803.00052049</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>183452.37252049</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>186412.62252049</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>142580.76771742</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>107018.18466806</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>107018.18466806</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>78542.70276806001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-61075.31506252997</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-70472.70592485997</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-68662.70592485997</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
